--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F6758A-03A4-445F-87CE-491717F64936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="600" windowWidth="27870" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{E5C3746B-21F6-4C38-AF5A-6E67ABF559E4}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,14 +33,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
--1 永久
-其他对应秒时间</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">-1 永久
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>其他对应秒时间</t>
         </r>
       </text>
     </comment>
@@ -57,318 +63,259 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>图标显示</t>
+  </si>
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>额外属性</t>
+  </si>
+  <si>
+    <t>序列帧动画</t>
+  </si>
+  <si>
+    <t>序列帧动画数量</t>
+  </si>
+  <si>
+    <t>有效期(秒)</t>
+  </si>
+  <si>
+    <t>额外属性描述</t>
+  </si>
+  <si>
+    <t>缩放大小</t>
+  </si>
+  <si>
+    <t>X偏移</t>
+  </si>
+  <si>
+    <t>Y便宜</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AddProperty</t>
+  </si>
+  <si>
+    <t>AnimatorAsset</t>
+  </si>
+  <si>
+    <t>AnimatorNumber</t>
+  </si>
+  <si>
+    <t>ValidityTime</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>MoveX</t>
+  </si>
+  <si>
+    <t>MoveY</t>
+  </si>
+  <si>
+    <t>GetDes</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddProperty</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外属性描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValidityTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列帧动画</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列帧动画数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimatorNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimatorAsset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X偏移</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y便宜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运星</t>
+  </si>
+  <si>
+    <t>100203;300</t>
+  </si>
+  <si>
+    <t>每天会随机给你一些金币！</t>
+  </si>
+  <si>
+    <t>30级完成任务激活</t>
+  </si>
+  <si>
+    <t>浣熊精灵</t>
   </si>
   <si>
     <t>100203;500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量+300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量+500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30级完成任务激活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币</t>
   </si>
   <si>
     <t>60级完成任务激活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪龟</t>
+  </si>
+  <si>
+    <t>100403;50</t>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币和道具</t>
+  </si>
+  <si>
+    <t>赞助礼包获取</t>
+  </si>
+  <si>
+    <t>灯鱼精灵</t>
+  </si>
+  <si>
+    <t>100202;0.01</t>
+  </si>
+  <si>
+    <t>每次玩家在战斗中受到伤害，有概率释放自己的治愈能力,恢复一定生命值.</t>
+  </si>
+  <si>
+    <t>成就系统获取</t>
+  </si>
+  <si>
+    <t>金钱豹</t>
+  </si>
+  <si>
+    <t>在敌人身上获得金币的数量提升5%</t>
+  </si>
+  <si>
+    <t>登录奖励系统获取</t>
+  </si>
+  <si>
+    <t>芭比扣</t>
+  </si>
+  <si>
+    <t>100402;0.01</t>
+  </si>
+  <si>
+    <t>远程打开仓库</t>
+  </si>
+  <si>
+    <t>熊熊</t>
+  </si>
+  <si>
+    <t>200903;0.02</t>
+  </si>
+  <si>
+    <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
+  </si>
+  <si>
+    <t>战场活动获取</t>
+  </si>
+  <si>
+    <t>魔焰</t>
+  </si>
+  <si>
+    <t>200103;0.02</t>
+  </si>
+  <si>
+    <t>在玩家附近有敌人出现会出现随机火焰攻击命中敌人</t>
   </si>
   <si>
     <t>角斗场活动获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场活动获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赞助礼包获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波比</t>
+  </si>
+  <si>
+    <t>100603;80@100803;80</t>
+  </si>
+  <si>
+    <t>每次玩家进入战斗会释放一个攻击状态,使其攻击上升5%,持续30秒</t>
+  </si>
+  <si>
+    <t>签到系统获取</t>
+  </si>
+  <si>
+    <t>鬼鬼</t>
+  </si>
+  <si>
+    <t>100403;100</t>
+  </si>
+  <si>
+    <t>当玩家身上血量降低至30%时会在玩家周围释放一个范围技能,造成2秒眩晕</t>
   </si>
   <si>
     <t>令牌系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调皮精灵</t>
+  </si>
+  <si>
+    <t>202103;0.02</t>
+  </si>
+  <si>
+    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
   </si>
   <si>
     <t>积分系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202;0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量提高1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402;0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率+2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200103;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加成+2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200903;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>202103;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击率+2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波波</t>
+  </si>
+  <si>
+    <t>200303;0.01</t>
+  </si>
+  <si>
+    <t>在敌人身上总能多发现一些无色晶体</t>
+  </si>
+  <si>
+    <t>华华</t>
+  </si>
+  <si>
+    <t>100402;0.02</t>
+  </si>
+  <si>
+    <t>提升玩家自身10%主属性(会在力量、智力、敏捷、体质、耐力中选择最高的一个)</t>
+  </si>
+  <si>
+    <t>呆呆</t>
   </si>
   <si>
     <t>120703;100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术强度+100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率+1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200303;0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录奖励系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防和魔防提升80点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100603;80@100803;80</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵3</t>
-  </si>
-  <si>
-    <t>精灵4</t>
-  </si>
-  <si>
-    <t>精灵5</t>
-  </si>
-  <si>
-    <t>精灵6</t>
-  </si>
-  <si>
-    <t>精灵7</t>
-  </si>
-  <si>
-    <t>精灵8</t>
-  </si>
-  <si>
-    <t>精灵9</t>
-  </si>
-  <si>
-    <t>精灵10</t>
-  </si>
-  <si>
-    <t>精灵11</t>
-  </si>
-  <si>
-    <t>精灵12</t>
-  </si>
-  <si>
-    <t>精灵13</t>
-  </si>
-  <si>
-    <t>精灵14</t>
+  </si>
+  <si>
+    <t>每次玩家受到攻击伤害,有概率会在玩家附近释放一个范围技能,造成伤害</t>
+  </si>
+  <si>
+    <t>南瓜恶人</t>
+  </si>
+  <si>
+    <t>每次玩家进入战斗,会有概率召唤自己的一个分身协助玩家进行战斗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,47 +327,175 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +510,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -461,11 +722,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,23 +977,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -775,19 +1320,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -795,146 +1340,146 @@
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="14.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
     <col min="12" max="14" width="9" style="2"/>
     <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:15">
       <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3" t="s">
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>12</v>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>66</v>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>10001</v>
@@ -943,7 +1488,7 @@
         <v>10001</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4">
         <v>10001</v>
@@ -954,8 +1499,8 @@
       <c r="J6" s="4">
         <v>-1</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>28</v>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="L6" s="4">
         <v>2</v>
@@ -967,15 +1512,15 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:15">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="4">
         <v>10002</v>
@@ -984,7 +1529,7 @@
         <v>10002</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4">
         <v>10002</v>
@@ -995,8 +1540,8 @@
       <c r="J7" s="4">
         <v>-1</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>30</v>
+      <c r="K7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="L7" s="4">
         <v>2</v>
@@ -1008,15 +1553,15 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:15">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
@@ -1025,7 +1570,7 @@
         <v>10003</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4">
         <v>10008</v>
@@ -1036,8 +1581,8 @@
       <c r="J8" s="4">
         <v>-1</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>43</v>
+      <c r="K8" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="L8" s="4">
         <v>2</v>
@@ -1049,15 +1594,15 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:15">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>69</v>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="4">
         <v>10004</v>
@@ -1066,7 +1611,7 @@
         <v>10004</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4">
         <v>10004</v>
@@ -1077,8 +1622,8 @@
       <c r="J9" s="4">
         <v>-1</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
+      <c r="K9" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="L9" s="4">
         <v>2</v>
@@ -1090,24 +1635,24 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:15">
       <c r="C10" s="4">
-        <v>100041</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>10005</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="4">
-        <v>10016</v>
+        <v>10005</v>
       </c>
       <c r="F10" s="4">
-        <v>10016</v>
+        <v>10005</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H10" s="4">
         <v>10016</v>
@@ -1118,8 +1663,8 @@
       <c r="J10" s="4">
         <v>-1</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>30</v>
+      <c r="K10" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
@@ -1131,24 +1676,24 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:15">
       <c r="C11" s="4">
-        <v>10005</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>10006</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="4">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="F11" s="4">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="4">
         <v>10005</v>
@@ -1159,8 +1704,8 @@
       <c r="J11" s="4">
         <v>-1</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>47</v>
+      <c r="K11" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="L11" s="4">
         <v>2</v>
@@ -1172,24 +1717,24 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:15">
       <c r="C12" s="4">
-        <v>10006</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>10007</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="4">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="F12" s="4">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4">
         <v>10006</v>
@@ -1198,39 +1743,39 @@
         <v>11</v>
       </c>
       <c r="J12" s="4">
-        <v>86400</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>50</v>
+        <v>-1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="L12" s="4">
         <v>2</v>
       </c>
       <c r="M12" s="4">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:15">
       <c r="C13" s="4">
-        <v>10007</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>10008</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E13" s="4">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="F13" s="4">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H13" s="4">
         <v>10007</v>
@@ -1239,39 +1784,39 @@
         <v>11</v>
       </c>
       <c r="J13" s="4">
-        <v>86400</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>48</v>
+        <v>-1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="L13" s="4">
         <v>2</v>
       </c>
       <c r="M13" s="4">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:15">
       <c r="C14" s="4">
-        <v>10008</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>10009</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="4">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="F14" s="4">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" s="4">
         <v>10003</v>
@@ -1282,8 +1827,8 @@
       <c r="J14" s="4">
         <v>-1</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>60</v>
+      <c r="K14" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="L14" s="4">
         <v>2</v>
@@ -1295,24 +1840,24 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:15">
       <c r="C15" s="4">
-        <v>10009</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>10010</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E15" s="4">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="F15" s="4">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H15" s="4">
         <v>10009</v>
@@ -1323,8 +1868,8 @@
       <c r="J15" s="4">
         <v>-1</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>40</v>
+      <c r="K15" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="L15" s="4">
         <v>2</v>
@@ -1336,15 +1881,15 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:15">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>76</v>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E16" s="4">
         <v>10011</v>
@@ -1353,7 +1898,7 @@
         <v>10011</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H16" s="4">
         <v>10011</v>
@@ -1364,8 +1909,8 @@
       <c r="J16" s="4">
         <v>-1</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>54</v>
+      <c r="K16" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="L16" s="4">
         <v>2</v>
@@ -1377,24 +1922,24 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:15">
       <c r="C17" s="4">
-        <v>10013</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>10012</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E17" s="4">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="F17" s="4">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H17" s="4">
         <v>10013</v>
@@ -1405,8 +1950,8 @@
       <c r="J17" s="4">
         <v>-1</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>57</v>
+      <c r="K17" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="L17" s="4">
         <v>2</v>
@@ -1418,24 +1963,24 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:15">
       <c r="C18" s="4">
-        <v>10014</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>10013</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E18" s="4">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="F18" s="4">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H18" s="4">
         <v>10014</v>
@@ -1446,8 +1991,8 @@
       <c r="J18" s="4">
         <v>-1</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>52</v>
+      <c r="K18" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="L18" s="4">
         <v>2</v>
@@ -1459,24 +2004,24 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:15">
       <c r="C19" s="4">
-        <v>10015</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>10014</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E19" s="4">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="F19" s="4">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H19" s="4">
         <v>10015</v>
@@ -1487,8 +2032,8 @@
       <c r="J19" s="4">
         <v>-1</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>56</v>
+      <c r="K19" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="L19" s="4">
         <v>2</v>
@@ -1500,22 +2045,62 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C20" s="4">
+        <v>10015</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10015</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10015</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10015</v>
+      </c>
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1"/>
+    <row r="22" ht="20.1" customHeight="1"/>
+    <row r="23" ht="20.1" customHeight="1"/>
+    <row r="24" ht="20.1" customHeight="1"/>
+    <row r="25" ht="20.1" customHeight="1"/>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -209,7 +209,7 @@
     <t>100402;0.01</t>
   </si>
   <si>
-    <t>远程打开仓库</t>
+    <t>可以在世界的任何一个地方打开你的仓库</t>
   </si>
   <si>
     <t>熊熊</t>
@@ -310,12 +310,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,10 +344,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,6 +392,29 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,6 +426,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -374,49 +458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -427,64 +468,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,37 +509,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,145 +683,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,30 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -758,6 +727,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,15 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -802,6 +771,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,133 +831,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,7 +973,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,7 +1322,7 @@
   <dimension ref="C1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1343,7 +1336,7 @@
     <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="2" customWidth="1"/>
     <col min="12" max="14" width="9" style="2"/>
     <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85BCB22-469D-4828-9D28-F5AAF5EB01BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,12 +64,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{AAD6C0D3-924B-481D-AED4-55A29C94E229}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.每天随机给东西   参数:掉落ID
+2.拾取地上的金币
+3.拾取地上的金币和道具
+4.附带技能  参数:技能ID
+5.激活提升属性 参数: 属性
+6.每次击败怪物额外附加一个掉落ID  参数: 掉落ID
+7.打开对应功能NPC的界面</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -152,170 +190,182 @@
     <t>100203;300</t>
   </si>
   <si>
+    <t>30级完成任务激活</t>
+  </si>
+  <si>
+    <t>浣熊精灵</t>
+  </si>
+  <si>
+    <t>100203;500</t>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币</t>
+  </si>
+  <si>
+    <t>60级完成任务激活</t>
+  </si>
+  <si>
+    <t>贪婪龟</t>
+  </si>
+  <si>
+    <t>100403;50</t>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币和道具</t>
+  </si>
+  <si>
+    <t>赞助礼包获取</t>
+  </si>
+  <si>
+    <t>灯鱼精灵</t>
+  </si>
+  <si>
+    <t>100202;0.01</t>
+  </si>
+  <si>
+    <t>每次玩家在战斗中受到伤害，有概率释放自己的治愈能力,恢复一定生命值.</t>
+  </si>
+  <si>
+    <t>成就系统获取</t>
+  </si>
+  <si>
+    <t>金钱豹</t>
+  </si>
+  <si>
+    <t>在敌人身上获得金币的数量提升5%</t>
+  </si>
+  <si>
+    <t>登录奖励系统获取</t>
+  </si>
+  <si>
+    <t>芭比扣</t>
+  </si>
+  <si>
+    <t>100402;0.01</t>
+  </si>
+  <si>
+    <t>可以在世界的任何一个地方打开你的仓库</t>
+  </si>
+  <si>
+    <t>熊熊</t>
+  </si>
+  <si>
+    <t>200903;0.02</t>
+  </si>
+  <si>
+    <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
+  </si>
+  <si>
+    <t>战场活动获取</t>
+  </si>
+  <si>
+    <t>魔焰</t>
+  </si>
+  <si>
+    <t>200103;0.02</t>
+  </si>
+  <si>
+    <t>在玩家附近有敌人出现会出现随机火焰攻击命中敌人</t>
+  </si>
+  <si>
+    <t>角斗场活动获取</t>
+  </si>
+  <si>
+    <t>波比</t>
+  </si>
+  <si>
+    <t>100603;80@100803;80</t>
+  </si>
+  <si>
+    <t>每次玩家进入战斗会释放一个攻击状态,使其攻击上升5%,持续30秒</t>
+  </si>
+  <si>
+    <t>签到系统获取</t>
+  </si>
+  <si>
+    <t>鬼鬼</t>
+  </si>
+  <si>
+    <t>100403;100</t>
+  </si>
+  <si>
+    <t>当玩家身上血量降低至30%时会在玩家周围释放一个范围技能,造成2秒眩晕</t>
+  </si>
+  <si>
+    <t>令牌系统获取</t>
+  </si>
+  <si>
+    <t>调皮精灵</t>
+  </si>
+  <si>
+    <t>202103;0.02</t>
+  </si>
+  <si>
+    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
+  </si>
+  <si>
+    <t>积分系统获取</t>
+  </si>
+  <si>
+    <t>波波</t>
+  </si>
+  <si>
+    <t>200303;0.01</t>
+  </si>
+  <si>
+    <t>在敌人身上总能多发现一些无色晶体</t>
+  </si>
+  <si>
+    <t>华华</t>
+  </si>
+  <si>
+    <t>100402;0.02</t>
+  </si>
+  <si>
+    <t>呆呆</t>
+  </si>
+  <si>
+    <t>120703;100</t>
+  </si>
+  <si>
+    <t>每次玩家受到攻击伤害,有概率会在玩家附近释放一个范围技能,造成伤害</t>
+  </si>
+  <si>
+    <t>南瓜恶人</t>
+  </si>
+  <si>
+    <t>每次玩家进入战斗,会有概率召唤自己的一个分身协助玩家进行战斗</t>
+  </si>
+  <si>
+    <t>FunctionType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionValue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>每天会随机给你一些金币！</t>
-  </si>
-  <si>
-    <t>30级完成任务激活</t>
-  </si>
-  <si>
-    <t>浣熊精灵</t>
-  </si>
-  <si>
-    <t>100203;500</t>
-  </si>
-  <si>
-    <t>帮助玩家主动拾取地上的金币</t>
-  </si>
-  <si>
-    <t>60级完成任务激活</t>
-  </si>
-  <si>
-    <t>贪婪龟</t>
-  </si>
-  <si>
-    <t>100403;50</t>
-  </si>
-  <si>
-    <t>帮助玩家主动拾取地上的金币和道具</t>
-  </si>
-  <si>
-    <t>赞助礼包获取</t>
-  </si>
-  <si>
-    <t>灯鱼精灵</t>
-  </si>
-  <si>
-    <t>100202;0.01</t>
-  </si>
-  <si>
-    <t>每次玩家在战斗中受到伤害，有概率释放自己的治愈能力,恢复一定生命值.</t>
-  </si>
-  <si>
-    <t>成就系统获取</t>
-  </si>
-  <si>
-    <t>金钱豹</t>
-  </si>
-  <si>
-    <t>在敌人身上获得金币的数量提升5%</t>
-  </si>
-  <si>
-    <t>登录奖励系统获取</t>
-  </si>
-  <si>
-    <t>芭比扣</t>
-  </si>
-  <si>
-    <t>100402;0.01</t>
-  </si>
-  <si>
-    <t>可以在世界的任何一个地方打开你的仓库</t>
-  </si>
-  <si>
-    <t>熊熊</t>
-  </si>
-  <si>
-    <t>200903;0.02</t>
-  </si>
-  <si>
-    <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
-  </si>
-  <si>
-    <t>战场活动获取</t>
-  </si>
-  <si>
-    <t>魔焰</t>
-  </si>
-  <si>
-    <t>200103;0.02</t>
-  </si>
-  <si>
-    <t>在玩家附近有敌人出现会出现随机火焰攻击命中敌人</t>
-  </si>
-  <si>
-    <t>角斗场活动获取</t>
-  </si>
-  <si>
-    <t>波比</t>
-  </si>
-  <si>
-    <t>100603;80@100803;80</t>
-  </si>
-  <si>
-    <t>每次玩家进入战斗会释放一个攻击状态,使其攻击上升5%,持续30秒</t>
-  </si>
-  <si>
-    <t>签到系统获取</t>
-  </si>
-  <si>
-    <t>鬼鬼</t>
-  </si>
-  <si>
-    <t>100403;100</t>
-  </si>
-  <si>
-    <t>当玩家身上血量降低至30%时会在玩家周围释放一个范围技能,造成2秒眩晕</t>
-  </si>
-  <si>
-    <t>令牌系统获取</t>
-  </si>
-  <si>
-    <t>调皮精灵</t>
-  </si>
-  <si>
-    <t>202103;0.02</t>
-  </si>
-  <si>
-    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
-  </si>
-  <si>
-    <t>积分系统获取</t>
-  </si>
-  <si>
-    <t>波波</t>
-  </si>
-  <si>
-    <t>200303;0.01</t>
-  </si>
-  <si>
-    <t>在敌人身上总能多发现一些无色晶体</t>
-  </si>
-  <si>
-    <t>华华</t>
-  </si>
-  <si>
-    <t>100402;0.02</t>
-  </si>
-  <si>
-    <t>提升玩家自身10%主属性(会在力量、智力、敏捷、体质、耐力中选择最高的一个)</t>
-  </si>
-  <si>
-    <t>呆呆</t>
-  </si>
-  <si>
-    <t>120703;100</t>
-  </si>
-  <si>
-    <t>每次玩家受到攻击伤害,有概率会在玩家附近释放一个范围技能,造成伤害</t>
-  </si>
-  <si>
-    <t>南瓜恶人</t>
-  </si>
-  <si>
-    <t>每次玩家进入战斗,会有概率召唤自己的一个分身协助玩家进行战斗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在怪物身上可以发现更多的金币！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,151 +394,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,198 +458,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -715,253 +484,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,59 +503,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1313,19 +810,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1336,15 +833,17 @@
     <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29.25" style="2" customWidth="1"/>
     <col min="12" max="14" width="9" style="2"/>
     <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="16" max="16" width="15.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:15">
+    <row r="1" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1384,8 +883,14 @@
       <c r="O3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1425,8 +930,14 @@
       <c r="O4" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1466,12 +977,18 @@
       <c r="O5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="4">
@@ -1492,8 +1009,8 @@
       <c r="J6" s="4">
         <v>-1</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>29</v>
+      <c r="K6" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="L6" s="4">
         <v>2</v>
@@ -1505,15 +1022,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:15">
+        <v>29</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="4">
         <v>10002</v>
@@ -1522,7 +1043,7 @@
         <v>10002</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4">
         <v>10002</v>
@@ -1534,7 +1055,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="4">
         <v>2</v>
@@ -1546,15 +1067,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:15">
+        <v>33</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>35</v>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
@@ -1563,7 +1088,7 @@
         <v>10003</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4">
         <v>10008</v>
@@ -1575,7 +1100,7 @@
         <v>-1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="4">
         <v>2</v>
@@ -1587,15 +1112,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:15">
+        <v>37</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="4">
         <v>10004</v>
@@ -1604,7 +1133,7 @@
         <v>10004</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4">
         <v>10004</v>
@@ -1616,7 +1145,7 @@
         <v>-1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="4">
         <v>2</v>
@@ -1628,15 +1157,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:15">
+        <v>41</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>10005</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="4">
         <v>10005</v>
@@ -1645,7 +1178,7 @@
         <v>10005</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="4">
         <v>10016</v>
@@ -1657,7 +1190,7 @@
         <v>-1</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
@@ -1669,15 +1202,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:15">
+        <v>44</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>10006</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>46</v>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E11" s="4">
         <v>10006</v>
@@ -1686,7 +1223,7 @@
         <v>10006</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="4">
         <v>10005</v>
@@ -1698,7 +1235,7 @@
         <v>-1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="4">
         <v>2</v>
@@ -1710,15 +1247,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:15">
+        <v>41</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>10007</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>49</v>
+      <c r="D12" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="4">
         <v>10007</v>
@@ -1727,7 +1268,7 @@
         <v>10007</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="4">
         <v>10006</v>
@@ -1739,7 +1280,7 @@
         <v>-1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" s="4">
         <v>2</v>
@@ -1751,15 +1292,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:15">
+        <v>51</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>10008</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>53</v>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="4">
         <v>10008</v>
@@ -1768,7 +1313,7 @@
         <v>10008</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="4">
         <v>10007</v>
@@ -1780,7 +1325,7 @@
         <v>-1</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="4">
         <v>2</v>
@@ -1792,15 +1337,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:15">
+        <v>55</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>10009</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E14" s="4">
         <v>10009</v>
@@ -1809,7 +1358,7 @@
         <v>10009</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="4">
         <v>10003</v>
@@ -1821,7 +1370,7 @@
         <v>-1</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" s="4">
         <v>2</v>
@@ -1833,15 +1382,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:15">
+        <v>59</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>10010</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
+      <c r="D15" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="4">
         <v>10010</v>
@@ -1850,7 +1403,7 @@
         <v>10010</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="4">
         <v>10009</v>
@@ -1862,7 +1415,7 @@
         <v>-1</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L15" s="4">
         <v>2</v>
@@ -1874,15 +1427,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:15">
+        <v>63</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E16" s="4">
         <v>10011</v>
@@ -1891,7 +1448,7 @@
         <v>10011</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="4">
         <v>10011</v>
@@ -1903,7 +1460,7 @@
         <v>-1</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="4">
         <v>2</v>
@@ -1915,15 +1472,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:15">
+        <v>67</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>10012</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>69</v>
+      <c r="D17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E17" s="4">
         <v>10012</v>
@@ -1932,7 +1493,7 @@
         <v>10012</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="4">
         <v>10013</v>
@@ -1944,7 +1505,7 @@
         <v>-1</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L17" s="4">
         <v>2</v>
@@ -1956,15 +1517,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:15">
+        <v>59</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>10013</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>72</v>
+      <c r="D18" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E18" s="4">
         <v>10013</v>
@@ -1973,7 +1538,7 @@
         <v>10013</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="4">
         <v>10014</v>
@@ -1984,8 +1549,8 @@
       <c r="J18" s="4">
         <v>-1</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>74</v>
+      <c r="K18" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="L18" s="4">
         <v>2</v>
@@ -1997,15 +1562,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:15">
+        <v>67</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>10014</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>75</v>
+      <c r="D19" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="4">
         <v>10014</v>
@@ -2014,7 +1583,7 @@
         <v>10014</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H19" s="4">
         <v>10015</v>
@@ -2026,7 +1595,7 @@
         <v>-1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L19" s="4">
         <v>2</v>
@@ -2038,15 +1607,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:15">
+        <v>67</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>10015</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>78</v>
+      <c r="D20" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="E20" s="4">
         <v>10015</v>
@@ -2055,7 +1628,7 @@
         <v>10015</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H20" s="4">
         <v>10015</v>
@@ -2067,7 +1640,7 @@
         <v>-1</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L20" s="4">
         <v>2</v>
@@ -2079,21 +1652,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1"/>
-    <row r="22" ht="20.1" customHeight="1"/>
-    <row r="23" ht="20.1" customHeight="1"/>
-    <row r="24" ht="20.1" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
+        <v>67</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85BCB22-469D-4828-9D28-F5AAF5EB01BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83C4B4-7AFD-48EB-AF2E-BAD9B4E2CF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="885" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -75,24 +75,13 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.每天随机给东西   参数:掉落ID
+          <t>1.每天随机给东西   参数:掉落ID
 2.拾取地上的金币
 3.拾取地上的金币和道具
-4.附带技能  参数:技能ID
+4.附带技能  参数:技能ID (取消当前精灵要取消对应的技能Buff)
 5.激活提升属性 参数: 属性
 6.每次击败怪物额外附加一个掉落ID  参数: 掉落ID
-7.打开对应功能NPC的界面</t>
+7.打开对应系统功能  参数: 功能ID</t>
         </r>
       </text>
     </comment>
@@ -101,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -190,9 +179,6 @@
     <t>100203;300</t>
   </si>
   <si>
-    <t>30级完成任务激活</t>
-  </si>
-  <si>
     <t>浣熊精灵</t>
   </si>
   <si>
@@ -202,9 +188,6 @@
     <t>帮助玩家主动拾取地上的金币</t>
   </si>
   <si>
-    <t>60级完成任务激活</t>
-  </si>
-  <si>
     <t>贪婪龟</t>
   </si>
   <si>
@@ -214,9 +197,6 @@
     <t>帮助玩家主动拾取地上的金币和道具</t>
   </si>
   <si>
-    <t>赞助礼包获取</t>
-  </si>
-  <si>
     <t>灯鱼精灵</t>
   </si>
   <si>
@@ -226,18 +206,12 @@
     <t>每次玩家在战斗中受到伤害，有概率释放自己的治愈能力,恢复一定生命值.</t>
   </si>
   <si>
-    <t>成就系统获取</t>
-  </si>
-  <si>
     <t>金钱豹</t>
   </si>
   <si>
     <t>在敌人身上获得金币的数量提升5%</t>
   </si>
   <si>
-    <t>登录奖励系统获取</t>
-  </si>
-  <si>
     <t>芭比扣</t>
   </si>
   <si>
@@ -256,21 +230,12 @@
     <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
   </si>
   <si>
-    <t>战场活动获取</t>
-  </si>
-  <si>
     <t>魔焰</t>
   </si>
   <si>
     <t>200103;0.02</t>
   </si>
   <si>
-    <t>在玩家附近有敌人出现会出现随机火焰攻击命中敌人</t>
-  </si>
-  <si>
-    <t>角斗场活动获取</t>
-  </si>
-  <si>
     <t>波比</t>
   </si>
   <si>
@@ -280,9 +245,6 @@
     <t>每次玩家进入战斗会释放一个攻击状态,使其攻击上升5%,持续30秒</t>
   </si>
   <si>
-    <t>签到系统获取</t>
-  </si>
-  <si>
     <t>鬼鬼</t>
   </si>
   <si>
@@ -292,19 +254,10 @@
     <t>当玩家身上血量降低至30%时会在玩家周围释放一个范围技能,造成2秒眩晕</t>
   </si>
   <si>
-    <t>令牌系统获取</t>
-  </si>
-  <si>
     <t>调皮精灵</t>
   </si>
   <si>
     <t>202103;0.02</t>
-  </si>
-  <si>
-    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
-  </si>
-  <si>
-    <t>积分系统获取</t>
   </si>
   <si>
     <t>波波</t>
@@ -357,7 +310,31 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>在怪物身上可以发现更多的金币！</t>
+    <t>野外有概率遇到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分系统获取</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到系统获取</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外概率遇到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在世界的任何一个地方开始洗炼你崭新的装备</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在玩家受到敌人攻击会出现随机魔法攻击命中敌人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,13 +394,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -488,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,8 +479,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -833,7 +809,7 @@
     <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="29.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="62.25" style="2" customWidth="1"/>
     <col min="12" max="14" width="9" style="2"/>
     <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="2" customWidth="1"/>
@@ -884,10 +860,10 @@
         <v>8</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -931,10 +907,10 @@
         <v>23</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1010,7 +986,7 @@
         <v>-1</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L6" s="4">
         <v>2</v>
@@ -1021,20 +997,22 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>29</v>
+      <c r="O6" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="P6" s="4">
         <v>1</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="4">
+        <v>60400501</v>
+      </c>
     </row>
     <row r="7" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4">
         <v>10002</v>
@@ -1043,7 +1021,7 @@
         <v>10002</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4">
         <v>10002</v>
@@ -1055,7 +1033,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="4">
         <v>2</v>
@@ -1066,11 +1044,11 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>33</v>
+      <c r="O7" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="P7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="4"/>
     </row>
@@ -1079,7 +1057,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
@@ -1088,7 +1066,7 @@
         <v>10003</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4">
         <v>10008</v>
@@ -1100,7 +1078,7 @@
         <v>-1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L8" s="4">
         <v>2</v>
@@ -1111,11 +1089,11 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>37</v>
+      <c r="O8" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="P8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="4"/>
     </row>
@@ -1124,7 +1102,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>10004</v>
@@ -1133,7 +1111,7 @@
         <v>10004</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4">
         <v>10004</v>
@@ -1145,7 +1123,7 @@
         <v>-1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L9" s="4">
         <v>2</v>
@@ -1156,20 +1134,22 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>41</v>
+      <c r="O9" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>64100001</v>
+      </c>
     </row>
     <row r="10" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>10005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4">
         <v>10005</v>
@@ -1178,7 +1158,7 @@
         <v>10005</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4">
         <v>10016</v>
@@ -1190,7 +1170,7 @@
         <v>-1</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
@@ -1201,20 +1181,22 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>44</v>
+      <c r="O10" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>10006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4">
         <v>10006</v>
@@ -1223,7 +1205,7 @@
         <v>10006</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H11" s="4">
         <v>10005</v>
@@ -1235,7 +1217,7 @@
         <v>-1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L11" s="4">
         <v>2</v>
@@ -1246,8 +1228,8 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>41</v>
+      <c r="O11" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="P11" s="4">
         <v>7</v>
@@ -1259,7 +1241,7 @@
         <v>10007</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4">
         <v>10007</v>
@@ -1268,7 +1250,7 @@
         <v>10007</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4">
         <v>10006</v>
@@ -1280,7 +1262,7 @@
         <v>-1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L12" s="4">
         <v>2</v>
@@ -1291,20 +1273,22 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>51</v>
+      <c r="O12" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>64100002</v>
+      </c>
     </row>
     <row r="13" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>10008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4">
         <v>10008</v>
@@ -1313,7 +1297,7 @@
         <v>10008</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4">
         <v>10007</v>
@@ -1324,8 +1308,8 @@
       <c r="J13" s="4">
         <v>-1</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>54</v>
+      <c r="K13" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="L13" s="4">
         <v>2</v>
@@ -1336,20 +1320,22 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>55</v>
+      <c r="O13" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>64100003</v>
+      </c>
     </row>
     <row r="14" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>10009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4">
         <v>10009</v>
@@ -1358,7 +1344,7 @@
         <v>10009</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H14" s="4">
         <v>10003</v>
@@ -1370,7 +1356,7 @@
         <v>-1</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L14" s="4">
         <v>2</v>
@@ -1381,20 +1367,22 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>59</v>
+      <c r="O14" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>64100004</v>
+      </c>
     </row>
     <row r="15" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>10010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4">
         <v>10010</v>
@@ -1403,7 +1391,7 @@
         <v>10010</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H15" s="4">
         <v>10009</v>
@@ -1415,7 +1403,7 @@
         <v>-1</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L15" s="4">
         <v>2</v>
@@ -1426,20 +1414,22 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>63</v>
+      <c r="O15" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>64100005</v>
+      </c>
     </row>
     <row r="16" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4">
         <v>10011</v>
@@ -1448,7 +1438,7 @@
         <v>10011</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H16" s="4">
         <v>10011</v>
@@ -1459,8 +1449,8 @@
       <c r="J16" s="4">
         <v>-1</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>66</v>
+      <c r="K16" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="L16" s="4">
         <v>2</v>
@@ -1471,20 +1461,22 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>67</v>
+      <c r="O16" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>64100006</v>
+      </c>
     </row>
     <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>10012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E17" s="4">
         <v>10012</v>
@@ -1493,7 +1485,7 @@
         <v>10012</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H17" s="4">
         <v>10013</v>
@@ -1505,7 +1497,7 @@
         <v>-1</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L17" s="4">
         <v>2</v>
@@ -1516,20 +1508,22 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>59</v>
+      <c r="O17" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>60400502</v>
+      </c>
     </row>
     <row r="18" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>10013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E18" s="4">
         <v>10013</v>
@@ -1538,7 +1532,7 @@
         <v>10013</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H18" s="4">
         <v>10014</v>
@@ -1550,7 +1544,7 @@
         <v>-1</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L18" s="4">
         <v>2</v>
@@ -1561,11 +1555,11 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>67</v>
+      <c r="O18" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="P18" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="4"/>
     </row>
@@ -1574,7 +1568,7 @@
         <v>10014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E19" s="4">
         <v>10014</v>
@@ -1583,7 +1577,7 @@
         <v>10014</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H19" s="4">
         <v>10015</v>
@@ -1595,7 +1589,7 @@
         <v>-1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L19" s="4">
         <v>2</v>
@@ -1606,20 +1600,22 @@
       <c r="N19" s="4">
         <v>0</v>
       </c>
-      <c r="O19" s="4" t="s">
-        <v>67</v>
+      <c r="O19" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>64100007</v>
+      </c>
     </row>
     <row r="20" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>10015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4">
         <v>10015</v>
@@ -1628,7 +1624,7 @@
         <v>10015</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H20" s="4">
         <v>10015</v>
@@ -1640,7 +1636,7 @@
         <v>-1</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="L20" s="4">
         <v>2</v>
@@ -1651,17 +1647,23 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" s="4" t="s">
-        <v>67</v>
+      <c r="O20" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>64100008</v>
+      </c>
     </row>
     <row r="21" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="10"/>
+    </row>
     <row r="24" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83C4B4-7AFD-48EB-AF2E-BAD9B4E2CF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B5F85-4D5C-46B9-9DAA-86957937B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="885" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28470" yWindow="915" windowWidth="27870" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -40,7 +39,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -49,7 +47,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">-1 永久
 </t>
@@ -58,7 +55,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>其他对应秒时间</t>
         </r>
@@ -354,32 +350,29 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -795,7 +788,7 @@
   <dimension ref="C1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1234,7 +1227,9 @@
       <c r="P11" s="4">
         <v>7</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="4">
+        <v>1004</v>
+      </c>
     </row>
     <row r="12" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
@@ -1561,7 +1556,9 @@
       <c r="P18" s="4">
         <v>7</v>
       </c>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4">
+        <v>1015</v>
+      </c>
     </row>
     <row r="19" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4">

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B5F85-4D5C-46B9-9DAA-86957937B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0588EF-92DE-468E-8500-A79008340754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28470" yWindow="915" windowWidth="27870" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27435" yWindow="825" windowWidth="27870" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0588EF-92DE-468E-8500-A79008340754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0840488-AB8A-4884-80F7-D9BD5B394DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27435" yWindow="825" windowWidth="27870" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,8 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -39,6 +41,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -47,6 +51,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">-1 永久
 </t>
@@ -55,12 +61,14 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>其他对应秒时间</t>
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{AAD6C0D3-924B-481D-AED4-55A29C94E229}">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{AAD6C0D3-924B-481D-AED4-55A29C94E229}">
       <text>
         <r>
           <rPr>
@@ -86,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -172,166 +180,236 @@
     <t>幸运星</t>
   </si>
   <si>
-    <t>100203;300</t>
-  </si>
-  <si>
     <t>浣熊精灵</t>
   </si>
   <si>
     <t>100203;500</t>
   </si>
   <si>
+    <t>贪婪龟</t>
+  </si>
+  <si>
+    <t>灯鱼精灵</t>
+  </si>
+  <si>
+    <t>金钱豹</t>
+  </si>
+  <si>
+    <t>芭比扣</t>
+  </si>
+  <si>
+    <t>熊熊</t>
+  </si>
+  <si>
+    <t>魔焰</t>
+  </si>
+  <si>
+    <t>波比</t>
+  </si>
+  <si>
+    <t>鬼鬼</t>
+  </si>
+  <si>
+    <t>调皮精灵</t>
+  </si>
+  <si>
+    <t>波波</t>
+  </si>
+  <si>
+    <t>华华</t>
+  </si>
+  <si>
+    <t>呆呆</t>
+  </si>
+  <si>
+    <t>南瓜恶人</t>
+  </si>
+  <si>
+    <t>FunctionType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionValue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外有概率遇到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分系统获取</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到系统获取</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外概率遇到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProDes</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限+500点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中等级提升50点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术强度提升100点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限+1000点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击强度提升100点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防提升100点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升50点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升100点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天会随机给你一些金币！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>帮助玩家主动拾取地上的金币</t>
-  </si>
-  <si>
-    <t>贪婪龟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币和道具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敌人身上获得金币的数量提升5%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在世界的任何一个地方打开你的仓库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在玩家受到敌人攻击会出现随机魔法攻击命中敌人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次玩家进入战斗会释放一个攻击状态,使其攻击上升5%,持续30秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家身上血量降低至30%时会在玩家周围释放一个范围技能,造成2秒眩晕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敌人身上总能多发现一些无色晶体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在世界的任何一个地方开始洗炼你崭新的装备</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次玩家受到攻击伤害,有概率会在玩家附近释放一个范围技能,造成伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次玩家进入战斗,会有概率召唤自己的一个分身协助玩家进行战斗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次玩家在战斗中受到伤害,有概率释放自己的治愈能力,恢复一定生命值.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率+1%</t>
   </si>
   <si>
     <t>100403;50</t>
   </si>
   <si>
-    <t>帮助玩家主动拾取地上的金币和道具</t>
-  </si>
-  <si>
-    <t>灯鱼精灵</t>
+    <t>202103;0.01</t>
   </si>
   <si>
     <t>100202;0.01</t>
   </si>
   <si>
-    <t>每次玩家在战斗中受到伤害，有概率释放自己的治愈能力,恢复一定生命值.</t>
-  </si>
-  <si>
-    <t>金钱豹</t>
-  </si>
-  <si>
-    <t>在敌人身上获得金币的数量提升5%</t>
-  </si>
-  <si>
-    <t>芭比扣</t>
-  </si>
-  <si>
-    <t>100402;0.01</t>
-  </si>
-  <si>
-    <t>可以在世界的任何一个地方打开你的仓库</t>
-  </si>
-  <si>
-    <t>熊熊</t>
-  </si>
-  <si>
-    <t>200903;0.02</t>
-  </si>
-  <si>
-    <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
-  </si>
-  <si>
-    <t>魔焰</t>
-  </si>
-  <si>
-    <t>200103;0.02</t>
-  </si>
-  <si>
-    <t>波比</t>
-  </si>
-  <si>
-    <t>100603;80@100803;80</t>
-  </si>
-  <si>
-    <t>每次玩家进入战斗会释放一个攻击状态,使其攻击上升5%,持续30秒</t>
-  </si>
-  <si>
-    <t>鬼鬼</t>
+    <t>119303;50</t>
+  </si>
+  <si>
+    <t>200403;0.01</t>
+  </si>
+  <si>
+    <t>200303;0.01</t>
+  </si>
+  <si>
+    <t>120703;100</t>
   </si>
   <si>
     <t>100403;100</t>
   </si>
   <si>
-    <t>当玩家身上血量降低至30%时会在玩家周围释放一个范围技能,造成2秒眩晕</t>
-  </si>
-  <si>
-    <t>调皮精灵</t>
-  </si>
-  <si>
-    <t>202103;0.02</t>
-  </si>
-  <si>
-    <t>波波</t>
-  </si>
-  <si>
-    <t>200303;0.01</t>
-  </si>
-  <si>
-    <t>在敌人身上总能多发现一些无色晶体</t>
-  </si>
-  <si>
-    <t>华华</t>
-  </si>
-  <si>
-    <t>100402;0.02</t>
-  </si>
-  <si>
-    <t>呆呆</t>
-  </si>
-  <si>
-    <t>120703;100</t>
-  </si>
-  <si>
-    <t>每次玩家受到攻击伤害,有概率会在玩家附近释放一个范围技能,造成伤害</t>
-  </si>
-  <si>
-    <t>南瓜恶人</t>
-  </si>
-  <si>
-    <t>每次玩家进入战斗,会有概率召唤自己的一个分身协助玩家进行战斗</t>
-  </si>
-  <si>
-    <t>FunctionType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能参数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionValue</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天会随机给你一些金币！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>野外有概率遇到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分系统获取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到系统获取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>野外概率遇到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在世界的任何一个地方开始洗炼你崭新的装备</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>在玩家受到敌人攻击会出现随机魔法攻击命中敌人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>100203;1000</t>
+  </si>
+  <si>
+    <t>120603;100</t>
+  </si>
+  <si>
+    <t>100603;100</t>
+  </si>
+  <si>
+    <t>200103;0.01</t>
   </si>
 </sst>
 </file>
@@ -363,16 +441,22 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -451,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,23 +547,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Q28"/>
+  <dimension ref="C1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -802,17 +883,18 @@
     <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="62.25" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.75" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="62.25" style="2" customWidth="1"/>
+    <col min="13" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.75" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -838,28 +920,31 @@
         <v>7</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -885,28 +970,31 @@
         <v>18</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -935,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>26</v>
@@ -944,20 +1032,23 @@
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="4">
@@ -966,8 +1057,8 @@
       <c r="F6" s="4">
         <v>10001</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
+      <c r="G6" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="H6" s="4">
         <v>10001</v>
@@ -978,34 +1069,37 @@
       <c r="J6" s="4">
         <v>-1</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="4">
         <v>2</v>
       </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="4">
         <v>1</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>60400501</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="4">
         <v>10002</v>
@@ -1013,8 +1107,8 @@
       <c r="F7" s="4">
         <v>10002</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
+      <c r="G7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H7" s="4">
         <v>10002</v>
@@ -1025,32 +1119,35 @@
       <c r="J7" s="4">
         <v>-1</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="4">
         <v>2</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="4">
         <v>2</v>
       </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
@@ -1058,8 +1155,8 @@
       <c r="F8" s="4">
         <v>10003</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>33</v>
+      <c r="G8" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="H8" s="4">
         <v>10008</v>
@@ -1070,32 +1167,35 @@
       <c r="J8" s="4">
         <v>-1</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="4">
         <v>2</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="4">
         <v>3</v>
       </c>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="4">
         <v>10004</v>
@@ -1103,8 +1203,8 @@
       <c r="F9" s="4">
         <v>10004</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
+      <c r="G9" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H9" s="4">
         <v>10004</v>
@@ -1115,34 +1215,37 @@
       <c r="J9" s="4">
         <v>-1</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="4">
         <v>2</v>
       </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="4">
         <v>4</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>64100001</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>10005</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="4">
         <v>10005</v>
@@ -1150,8 +1253,8 @@
       <c r="F10" s="4">
         <v>10005</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>30</v>
+      <c r="G10" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="H10" s="4">
         <v>10016</v>
@@ -1162,34 +1265,37 @@
       <c r="J10" s="4">
         <v>-1</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="4">
         <v>5</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>10006</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>40</v>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="4">
         <v>10006</v>
@@ -1197,8 +1303,8 @@
       <c r="F11" s="4">
         <v>10006</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>41</v>
+      <c r="G11" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H11" s="4">
         <v>10005</v>
@@ -1209,34 +1315,37 @@
       <c r="J11" s="4">
         <v>-1</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="K11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="4">
         <v>2</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="4">
         <v>7</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <v>1004</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>10007</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>43</v>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="4">
         <v>10007</v>
@@ -1244,8 +1353,8 @@
       <c r="F12" s="4">
         <v>10007</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
+      <c r="G12" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="H12" s="4">
         <v>10006</v>
@@ -1256,34 +1365,37 @@
       <c r="J12" s="4">
         <v>-1</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="4">
         <v>2</v>
       </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="4">
         <v>4</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>64100002</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>10008</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>46</v>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E13" s="4">
         <v>10008</v>
@@ -1291,8 +1403,8 @@
       <c r="F13" s="4">
         <v>10008</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>47</v>
+      <c r="G13" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="H13" s="4">
         <v>10007</v>
@@ -1303,34 +1415,37 @@
       <c r="J13" s="4">
         <v>-1</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="K13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="4">
         <v>2</v>
       </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="4">
         <v>4</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>64100003</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>10009</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="4">
         <v>10009</v>
@@ -1338,8 +1453,8 @@
       <c r="F14" s="4">
         <v>10009</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>49</v>
+      <c r="G14" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="H14" s="4">
         <v>10003</v>
@@ -1350,34 +1465,37 @@
       <c r="J14" s="4">
         <v>-1</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="K14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="4">
         <v>2</v>
       </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="4">
         <v>4</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>64100004</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>10010</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>51</v>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="4">
         <v>10010</v>
@@ -1385,8 +1503,8 @@
       <c r="F15" s="4">
         <v>10010</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>52</v>
+      <c r="G15" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="H15" s="4">
         <v>10009</v>
@@ -1397,34 +1515,37 @@
       <c r="J15" s="4">
         <v>-1</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="K15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="4">
         <v>2</v>
       </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="4">
         <v>4</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <v>64100005</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>54</v>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="4">
         <v>10011</v>
@@ -1432,8 +1553,8 @@
       <c r="F16" s="4">
         <v>10011</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>55</v>
+      <c r="G16" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="H16" s="4">
         <v>10011</v>
@@ -1444,34 +1565,37 @@
       <c r="J16" s="4">
         <v>-1</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="K16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="4">
         <v>2</v>
       </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="4">
         <v>4</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>64100006</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>10012</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>56</v>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E17" s="4">
         <v>10012</v>
@@ -1479,8 +1603,8 @@
       <c r="F17" s="4">
         <v>10012</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>57</v>
+      <c r="G17" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H17" s="4">
         <v>10013</v>
@@ -1491,34 +1615,37 @@
       <c r="J17" s="4">
         <v>-1</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="4">
         <v>2</v>
       </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="4">
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="4">
         <v>6</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>60400502</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>10013</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>59</v>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="4">
         <v>10013</v>
@@ -1526,8 +1653,8 @@
       <c r="F18" s="4">
         <v>10013</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>60</v>
+      <c r="G18" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="H18" s="4">
         <v>10014</v>
@@ -1538,34 +1665,37 @@
       <c r="J18" s="4">
         <v>-1</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="4">
         <v>2</v>
       </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="4">
         <v>7</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>1015</v>
       </c>
     </row>
-    <row r="19" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>10014</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>61</v>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="E19" s="4">
         <v>10014</v>
@@ -1573,8 +1703,8 @@
       <c r="F19" s="4">
         <v>10014</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>62</v>
+      <c r="G19" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="H19" s="4">
         <v>10015</v>
@@ -1585,34 +1715,37 @@
       <c r="J19" s="4">
         <v>-1</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="4">
         <v>2</v>
       </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
-      <c r="O19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="4">
         <v>4</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>64100007</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>10015</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>64</v>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E20" s="4">
         <v>10015</v>
@@ -1620,8 +1753,8 @@
       <c r="F20" s="4">
         <v>10015</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>62</v>
+      <c r="G20" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H20" s="4">
         <v>10015</v>
@@ -1632,40 +1765,43 @@
       <c r="J20" s="4">
         <v>-1</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="K20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="4">
         <v>2</v>
       </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="4">
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="4">
         <v>4</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>64100008</v>
       </c>
     </row>
-    <row r="21" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0840488-AB8A-4884-80F7-D9BD5B394DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C470C7F-7310-4C58-8AC3-A3E9F86487BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -869,7 +869,7 @@
   <dimension ref="C1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C470C7F-7310-4C58-8AC3-A3E9F86487BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E508B2-5A22-4B9A-8E52-B5BB82EB167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
           </rPr>
           <t>1.每天随机给东西   参数:掉落ID
 2.拾取地上的金币
-3.拾取地上的金币和道具
+3.废弃
 4.附带技能  参数:技能ID (取消当前精灵要取消对应的技能Buff)
 5.激活提升属性 参数: 属性
 6.每次击败怪物额外附加一个掉落ID  参数: 掉落ID
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Id</t>
   </si>
@@ -410,6 +410,22 @@
   </si>
   <si>
     <t>200103;0.01</t>
+  </si>
+  <si>
+    <t>自动拾取</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoPick</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -866,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:R28"/>
+  <dimension ref="C1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -888,13 +904,17 @@
     <col min="13" max="15" width="9" style="2"/>
     <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.75" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="18" max="19" width="18.75" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -943,8 +963,11 @@
       <c r="R3" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -993,8 +1016,11 @@
       <c r="R4" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1043,8 +1069,11 @@
       <c r="R5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
@@ -1093,8 +1122,11 @@
       <c r="R6" s="4">
         <v>60400501</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
@@ -1141,8 +1173,11 @@
         <v>2</v>
       </c>
       <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
@@ -1186,11 +1221,14 @@
         <v>48</v>
       </c>
       <c r="Q8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
@@ -1239,8 +1277,11 @@
       <c r="R9" s="4">
         <v>64100001</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>10005</v>
       </c>
@@ -1289,8 +1330,11 @@
       <c r="R10" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>10006</v>
       </c>
@@ -1339,8 +1383,11 @@
       <c r="R11" s="4">
         <v>1004</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>10007</v>
       </c>
@@ -1389,8 +1436,11 @@
       <c r="R12" s="4">
         <v>64100002</v>
       </c>
-    </row>
-    <row r="13" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>10008</v>
       </c>
@@ -1439,8 +1489,11 @@
       <c r="R13" s="4">
         <v>64100003</v>
       </c>
-    </row>
-    <row r="14" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>10009</v>
       </c>
@@ -1489,8 +1542,11 @@
       <c r="R14" s="4">
         <v>64100004</v>
       </c>
-    </row>
-    <row r="15" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>10010</v>
       </c>
@@ -1539,8 +1595,11 @@
       <c r="R15" s="4">
         <v>64100005</v>
       </c>
-    </row>
-    <row r="16" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
@@ -1589,8 +1648,11 @@
       <c r="R16" s="4">
         <v>64100006</v>
       </c>
-    </row>
-    <row r="17" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>10012</v>
       </c>
@@ -1639,8 +1701,11 @@
       <c r="R17" s="4">
         <v>60400502</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>10013</v>
       </c>
@@ -1689,8 +1754,11 @@
       <c r="R18" s="4">
         <v>1015</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>10014</v>
       </c>
@@ -1739,8 +1807,11 @@
       <c r="R19" s="4">
         <v>64100007</v>
       </c>
-    </row>
-    <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>10015</v>
       </c>
@@ -1789,19 +1860,22 @@
       <c r="R20" s="4">
         <v>64100008</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E508B2-5A22-4B9A-8E52-B5BB82EB167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F5FFE-D6FE-4EDB-91C2-C107ACEBC75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>可以在世界的任何一个地方打开你的仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -365,10 +361,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每次玩家进入战斗,会有概率召唤自己的一个分身协助玩家进行战斗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>每次玩家在战斗中受到伤害,有概率释放自己的治愈能力,恢复一定生命值.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -425,6 +417,14 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币和道具,每次玩家进入战斗,会有概率召唤自己的一个分身协助玩家进行战斗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币和道具,可以在世界的任何一个地方打开你的仓库</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +885,7 @@
   <dimension ref="C1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -911,7 +911,7 @@
     <row r="1" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>44</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1087,7 +1087,7 @@
         <v>10001</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" s="4">
         <v>10001</v>
@@ -1191,7 +1191,7 @@
         <v>10003</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="4">
         <v>10008</v>
@@ -1242,7 +1242,7 @@
         <v>10004</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="4">
         <v>10004</v>
@@ -1257,7 +1257,7 @@
         <v>54</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M9" s="4">
         <v>2</v>
@@ -1295,7 +1295,7 @@
         <v>10005</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4">
         <v>10016</v>
@@ -1348,7 +1348,7 @@
         <v>10006</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="4">
         <v>10005</v>
@@ -1363,7 +1363,7 @@
         <v>58</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M11" s="4">
         <v>2</v>
@@ -1384,7 +1384,7 @@
         <v>1004</v>
       </c>
       <c r="S11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1401,7 @@
         <v>10007</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="4">
         <v>10006</v>
@@ -1416,7 +1416,7 @@
         <v>63</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M12" s="4">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>10008</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" s="4">
         <v>10007</v>
@@ -1469,7 +1469,7 @@
         <v>56</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="4">
         <v>2</v>
@@ -1507,7 +1507,7 @@
         <v>10009</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="4">
         <v>10003</v>
@@ -1522,7 +1522,7 @@
         <v>64</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="4">
         <v>2</v>
@@ -1560,7 +1560,7 @@
         <v>10010</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H15" s="4">
         <v>10009</v>
@@ -1575,7 +1575,7 @@
         <v>57</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M15" s="4">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>10011</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="4">
         <v>10011</v>
@@ -1628,7 +1628,7 @@
         <v>59</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M16" s="4">
         <v>2</v>
@@ -1666,7 +1666,7 @@
         <v>10012</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="4">
         <v>10013</v>
@@ -1681,7 +1681,7 @@
         <v>58</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M17" s="4">
         <v>2</v>
@@ -1719,7 +1719,7 @@
         <v>10013</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="4">
         <v>10014</v>
@@ -1734,7 +1734,7 @@
         <v>60</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" s="4">
         <v>2</v>
@@ -1772,7 +1772,7 @@
         <v>10014</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" s="4">
         <v>10015</v>
@@ -1787,7 +1787,7 @@
         <v>63</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M19" s="4">
         <v>2</v>
@@ -1825,7 +1825,7 @@
         <v>10015</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H20" s="4">
         <v>10015</v>
@@ -1837,10 +1837,10 @@
         <v>-1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="M20" s="4">
         <v>2</v>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F5FFE-D6FE-4EDB-91C2-C107ACEBC75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422226C-DDEE-46FC-B59C-80541DADD675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -365,9 +365,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>暴击概率+1%</t>
-  </si>
-  <si>
     <t>100403;50</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>100603;100</t>
   </si>
   <si>
-    <t>200103;0.01</t>
-  </si>
-  <si>
     <t>自动拾取</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -425,6 +419,22 @@
   </si>
   <si>
     <t>帮助玩家主动拾取地上的金币和道具,可以在世界的任何一个地方打开你的仓库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成+3%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200903;0.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率+3%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103;0.03</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -884,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -911,7 +921,7 @@
     <row r="1" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -964,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1070,7 +1080,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1087,7 +1097,7 @@
         <v>10001</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4">
         <v>10001</v>
@@ -1191,7 +1201,7 @@
         <v>10003</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="4">
         <v>10008</v>
@@ -1242,7 +1252,7 @@
         <v>10004</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="4">
         <v>10004</v>
@@ -1295,7 +1305,7 @@
         <v>10005</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="4">
         <v>10016</v>
@@ -1348,7 +1358,7 @@
         <v>10006</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H11" s="4">
         <v>10005</v>
@@ -1360,10 +1370,10 @@
         <v>-1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M11" s="4">
         <v>2</v>
@@ -1401,7 +1411,7 @@
         <v>10007</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="4">
         <v>10006</v>
@@ -1454,7 +1464,7 @@
         <v>10008</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="4">
         <v>10007</v>
@@ -1507,7 +1517,7 @@
         <v>10009</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="4">
         <v>10003</v>
@@ -1560,7 +1570,7 @@
         <v>10010</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="4">
         <v>10009</v>
@@ -1613,7 +1623,7 @@
         <v>10011</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="4">
         <v>10011</v>
@@ -1666,7 +1676,7 @@
         <v>10012</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" s="4">
         <v>10013</v>
@@ -1719,7 +1729,7 @@
         <v>10013</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="4">
         <v>10014</v>
@@ -1772,7 +1782,7 @@
         <v>10014</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="4">
         <v>10015</v>
@@ -1825,7 +1835,7 @@
         <v>10015</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H20" s="4">
         <v>10015</v>
@@ -1837,10 +1847,10 @@
         <v>-1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M20" s="4">
         <v>2</v>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422226C-DDEE-46FC-B59C-80541DADD675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48091536-5540-40CF-81C2-F72258357EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
   <dimension ref="C1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48091536-5540-40CF-81C2-F72258357EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0E1A3-54CC-4584-A059-023C7A8FC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0E1A3-54CC-4584-A059-023C7A8FC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22092CC0-D8B3-4555-91EF-51346FD2FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/JingLingConfig.xlsx
+++ b/Excel/JingLingConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22092CC0-D8B3-4555-91EF-51346FD2FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8773E043-1041-4232-88EE-3AEBF16C5565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -422,19 +422,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>伤害加成+3%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200903;0.03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击概率+3%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200103;0.03</t>
+    <t>伤害加成+5%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200903;0.05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率+5%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103;0.05</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +895,7 @@
   <dimension ref="C1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
